--- a/oa/database.xlsx
+++ b/oa/database.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
     <sheet name="staff" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="270">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,371 +504,464 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10.0.82.212</t>
+  </si>
+  <si>
+    <t>10.0.82.213</t>
+  </si>
+  <si>
+    <t>10.0.82.214</t>
+  </si>
+  <si>
+    <t>10.0.82.215</t>
+  </si>
+  <si>
+    <t>10.0.82.216</t>
+  </si>
+  <si>
+    <t>10.0.82.217</t>
+  </si>
+  <si>
+    <t>10.0.82.218</t>
+  </si>
+  <si>
+    <t>10.0.82.219</t>
+  </si>
+  <si>
+    <t>10.0.82.220</t>
+  </si>
+  <si>
+    <t>10.0.82.221</t>
+  </si>
+  <si>
+    <t>10.0.82.222</t>
+  </si>
+  <si>
+    <t>10.0.82.223</t>
+  </si>
+  <si>
+    <t>10.0.82.224</t>
+  </si>
+  <si>
+    <t>10.0.82.225</t>
+  </si>
+  <si>
+    <t>10.0.82.226</t>
+  </si>
+  <si>
+    <t>10.0.82.227</t>
+  </si>
+  <si>
+    <t>10.0.82.228</t>
+  </si>
+  <si>
+    <t>10.0.82.229</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>littlephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>littlephone2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18806329599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13806328921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18806326181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13863231800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863210338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18763227683</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863206655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13863270555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18263289088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863200338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15863211383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13563231955</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18806326318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18806327070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863283688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13455063505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13606328379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863291001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13606320713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863265379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863291023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13863276432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18806321639</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863202001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18806326255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15906323365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18806326387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18863201177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15506326319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15506326327</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18263735763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13455755689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67683</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61955</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61639</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66327</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3181268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8622166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3342983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3342973</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8687816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3685156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3367388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3314493</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3182896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3310189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3342977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3227686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3680819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3286516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3319491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3314510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3312816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>littletel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>littletel2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10.0.82.195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.82.211</t>
-  </si>
-  <si>
-    <t>10.0.82.212</t>
-  </si>
-  <si>
-    <t>10.0.82.213</t>
-  </si>
-  <si>
-    <t>10.0.82.214</t>
-  </si>
-  <si>
-    <t>10.0.82.215</t>
-  </si>
-  <si>
-    <t>10.0.82.216</t>
-  </si>
-  <si>
-    <t>10.0.82.217</t>
-  </si>
-  <si>
-    <t>10.0.82.218</t>
-  </si>
-  <si>
-    <t>10.0.82.219</t>
-  </si>
-  <si>
-    <t>10.0.82.220</t>
-  </si>
-  <si>
-    <t>10.0.82.221</t>
-  </si>
-  <si>
-    <t>10.0.82.222</t>
-  </si>
-  <si>
-    <t>10.0.82.223</t>
-  </si>
-  <si>
-    <t>10.0.82.224</t>
-  </si>
-  <si>
-    <t>10.0.82.225</t>
-  </si>
-  <si>
-    <t>10.0.82.226</t>
-  </si>
-  <si>
-    <t>10.0.82.227</t>
-  </si>
-  <si>
-    <t>10.0.82.228</t>
-  </si>
-  <si>
-    <t>10.0.82.229</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>littlephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>littlephone2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18806329599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13806328921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18806326181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13863231800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863210338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18763227683</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863206655</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13863270555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18263289088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863200338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15863211383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13563231955</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18806326318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18806327070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863283688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13455063505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13606328379</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863291001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13606320713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863265379</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863291023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13863276432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18806321639</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863202001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18806326255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15906323365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18806326387</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18863201177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15506326319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15506326327</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18263735763</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13455755689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67683</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66655</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61955</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66667</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68379</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65379</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61639</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66387</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66327</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +1022,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,19 +1365,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +1394,14 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1311,7 +1414,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1327,8 +1430,16 @@
       <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="5" t="str">
+        <f>6&amp;RIGHT(D3,4)</f>
+        <v>66899</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>6&amp;RIGHT(E3,4)</f>
+        <v>66069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1338,12 +1449,17 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>3181268</v>
+      <c r="D4" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="5" t="str">
+        <f t="shared" ref="F4:G24" si="0">6&amp;RIGHT(D4,4)</f>
+        <v>61268</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1355,8 +1471,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1368,8 +1486,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1381,8 +1501,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1392,12 +1514,17 @@
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <v>8622166</v>
+      <c r="D8" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>62166</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1407,12 +1534,17 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
-        <v>3342983</v>
+      <c r="D9" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>62983</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1422,12 +1554,17 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
-        <v>3342973</v>
+      <c r="D10" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>62973</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1437,12 +1574,17 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2">
-        <v>8687816</v>
+      <c r="D11" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>67816</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1452,12 +1594,17 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2">
-        <v>3685156</v>
+      <c r="D12" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>65156</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1467,12 +1614,17 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2">
-        <v>3367388</v>
+      <c r="D13" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>67388</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1482,14 +1634,22 @@
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2">
-        <v>3314493</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3312816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>64493</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>62816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1499,12 +1659,17 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2">
-        <v>3182896</v>
+      <c r="D15" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>62896</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1516,8 +1681,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1531,8 +1698,13 @@
         <v>126</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>65157</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1542,12 +1714,17 @@
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2">
-        <v>3310189</v>
+      <c r="D18" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>60189</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1557,12 +1734,17 @@
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2">
-        <v>3342977</v>
+      <c r="D19" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>62977</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1572,12 +1754,17 @@
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="2">
-        <v>3227686</v>
+      <c r="D20" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>67686</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1587,12 +1774,17 @@
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="2">
-        <v>3680819</v>
+      <c r="D21" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>60819</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1602,12 +1794,17 @@
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="2">
-        <v>3286516</v>
+      <c r="D22" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>66516</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1617,12 +1814,17 @@
       <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="2">
-        <v>3319491</v>
+      <c r="D23" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>69491</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1632,10 +1834,15 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="2">
-        <v>3314510</v>
+      <c r="D24" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="E24" s="2"/>
+      <c r="F24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>64510</v>
+      </c>
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1648,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1681,10 +1888,10 @@
         <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>146</v>
@@ -1701,11 +1908,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
@@ -1723,15 +1930,15 @@
         <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1749,7 +1956,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1763,15 +1970,15 @@
         <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1785,15 +1992,15 @@
         <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1807,15 +2014,15 @@
         <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1835,7 +2042,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1849,15 +2056,15 @@
         <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1871,15 +2078,15 @@
         <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1893,15 +2100,15 @@
         <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1915,15 +2122,15 @@
         <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1937,15 +2144,15 @@
         <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1959,15 +2166,15 @@
         <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1981,15 +2188,15 @@
         <v>102</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -2003,15 +2210,15 @@
         <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -2029,11 +2236,11 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -2047,15 +2254,15 @@
         <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -2069,15 +2276,15 @@
         <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -2091,15 +2298,15 @@
         <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -2113,15 +2320,15 @@
         <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -2139,11 +2346,11 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -2157,15 +2364,15 @@
         <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -2179,15 +2386,15 @@
         <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -2201,15 +2408,15 @@
         <v>112</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -2223,15 +2430,15 @@
         <v>112</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -2245,15 +2452,15 @@
         <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -2267,15 +2474,15 @@
         <v>114</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -2289,15 +2496,15 @@
         <v>116</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2311,15 +2518,15 @@
         <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2333,7 +2540,7 @@
         <v>116</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
@@ -2341,7 +2548,7 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2355,15 +2562,15 @@
         <v>118</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2377,15 +2584,15 @@
         <v>120</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2399,15 +2606,15 @@
         <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -2421,13 +2628,13 @@
         <v>122</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -2441,20 +2648,20 @@
         <v>122</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>92</v>
@@ -2463,13 +2670,13 @@
         <v>122</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
